--- a/data/pricelists/dns_pricelist.xlsx
+++ b/data/pricelists/dns_pricelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B9595-835B-41E1-A406-A59183556E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E80A84-198F-47DA-B89E-0D595FECB226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6170" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>15599</v>
+        <v>16499</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>

--- a/data/pricelists/dns_pricelist.xlsx
+++ b/data/pricelists/dns_pricelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E80A84-198F-47DA-B89E-0D595FECB226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA905369-52FE-4B45-8817-F3405F21B711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>5899</v>
+        <v>64999</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
